--- a/documentation/Specifiche.xlsx
+++ b/documentation/Specifiche.xlsx
@@ -1,21 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19226"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19330"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\andb7\WebstormProjects\apptour\documentation\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\andb7\WebstormProjects\Apptour nicola\AppTour\documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{03A6BA79-0CD2-4565-A50F-C0FD6561ADD6}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{61C55F36-0EA4-4605-BC2A-7B02719EC600}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="9900" windowHeight="6156" activeTab="2" xr2:uid="{2E08219F-3EE0-4281-A1FC-E99460978121}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="9900" windowHeight="6156" activeTab="4" xr2:uid="{2E08219F-3EE0-4281-A1FC-E99460978121}"/>
   </bookViews>
   <sheets>
     <sheet name="eventi" sheetId="1" r:id="rId1"/>
     <sheet name="objMapping" sheetId="2" r:id="rId2"/>
     <sheet name="dimensioni" sheetId="3" r:id="rId3"/>
+    <sheet name="immagini" sheetId="4" r:id="rId4"/>
+    <sheet name="TreeBuilder" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -27,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="255" uniqueCount="161">
   <si>
     <t>Componente di origine</t>
   </si>
@@ -279,13 +281,270 @@
   </si>
   <si>
     <t>height</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Sezione </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>lavaggio</t>
+    </r>
+  </si>
+  <si>
+    <t>prelavaggio</t>
+  </si>
+  <si>
+    <t>pompa acqua</t>
+  </si>
+  <si>
+    <t>corrente assorbita</t>
+  </si>
+  <si>
+    <t>numero di giri</t>
+  </si>
+  <si>
+    <t>ore lavoro</t>
+  </si>
+  <si>
+    <t>contatore acqua</t>
+  </si>
+  <si>
+    <t>sensore temperatura</t>
+  </si>
+  <si>
+    <t>sensore livello acqua</t>
+  </si>
+  <si>
+    <t>lavaggio</t>
+  </si>
+  <si>
+    <t>pompa</t>
+  </si>
+  <si>
+    <t>asciugatura</t>
+  </si>
+  <si>
+    <t>ventilatore</t>
+  </si>
+  <si>
+    <t>sensore umidità</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Sezione </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>trattamento</t>
+    </r>
+  </si>
+  <si>
+    <t>vasca pre trattamento</t>
+  </si>
+  <si>
+    <t>sensore livello</t>
+  </si>
+  <si>
+    <t>sensore pH</t>
+  </si>
+  <si>
+    <t>vasca primier</t>
+  </si>
+  <si>
+    <t>vasca finisher</t>
+  </si>
+  <si>
+    <t>Sezione stoccaggio</t>
+  </si>
+  <si>
+    <t>impilatore</t>
+  </si>
+  <si>
+    <t>motore 1</t>
+  </si>
+  <si>
+    <t>motore 2</t>
+  </si>
+  <si>
+    <t>PiantinaAngus</t>
+  </si>
+  <si>
+    <t>Lean</t>
+  </si>
+  <si>
+    <t>Default</t>
+  </si>
+  <si>
+    <t>Digital1</t>
+  </si>
+  <si>
+    <t>Digital2</t>
+  </si>
+  <si>
+    <t>x</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  viewSezioneLavaggio,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  viewPrelavaggio,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  viewLavaggio,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  viewAsciugatura,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  viewPompaAcqua,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  viewContatoreAcqua,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  viewSensoreTemperatura,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  viewSensoreLivelloAcqua,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  viewPompa,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  viewVentilatore,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  viewSensoreUmidita,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  viewSezionePretrattamento,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  viewVascaPretrattamento,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  viewVascaPrimer,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  viewVascaFinisher,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  viewSensoreLivello,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  viewSensorePH,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  viewSezioneStoccaggio,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  viewImpilatore,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  viewMotore1,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  viewMotore2</t>
+  </si>
+  <si>
+    <t>viewHome</t>
+  </si>
+  <si>
+    <t>this.data[ObjectID.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">] = </t>
+  </si>
+  <si>
+    <t>.JSON();</t>
+  </si>
+  <si>
+    <t>viewSezioneLavaggio</t>
+  </si>
+  <si>
+    <t>viewPrelavaggio</t>
+  </si>
+  <si>
+    <t>viewLavaggio</t>
+  </si>
+  <si>
+    <t>viewAsciugatura</t>
+  </si>
+  <si>
+    <t>viewPompaAcqua</t>
+  </si>
+  <si>
+    <t>viewContatoreAcqua</t>
+  </si>
+  <si>
+    <t>viewSensoreTemperatura</t>
+  </si>
+  <si>
+    <t>viewSensoreLivelloAcqua</t>
+  </si>
+  <si>
+    <t>viewPompa</t>
+  </si>
+  <si>
+    <t>viewVentilatore</t>
+  </si>
+  <si>
+    <t>viewSensoreUmidita</t>
+  </si>
+  <si>
+    <t>viewSezionePretrattamento</t>
+  </si>
+  <si>
+    <t>viewVascaPretrattamento</t>
+  </si>
+  <si>
+    <t>viewVascaPrimer</t>
+  </si>
+  <si>
+    <t>viewVascaFinisher</t>
+  </si>
+  <si>
+    <t>viewSensoreLivello</t>
+  </si>
+  <si>
+    <t>viewSensorePH</t>
+  </si>
+  <si>
+    <t>viewSezioneStoccaggio</t>
+  </si>
+  <si>
+    <t>viewImpilatore</t>
+  </si>
+  <si>
+    <t>viewMotore1</t>
+  </si>
+  <si>
+    <t>viewMotore2</t>
+  </si>
+  <si>
+    <t>viewPiantinaAngus</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -308,8 +567,16 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -319,6 +586,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-4.9989318521683403E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -350,13 +629,18 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1683,7 +1967,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{16DB5FD6-196D-458B-BECE-B0A910CD2DCA}">
   <dimension ref="A1:M4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F1" sqref="F1:F1048576"/>
     </sheetView>
   </sheetViews>
@@ -1795,4 +2079,627 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2165D63F-4ED3-493D-9EAD-217A4AC38B2D}">
+  <dimension ref="A1:K47"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="N1" sqref="N1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="4" width="8.88671875" style="6"/>
+    <col min="5" max="9" width="19" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A1" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A2" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="E2" t="s">
+        <v>108</v>
+      </c>
+      <c r="K2" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A3" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="F3" t="s">
+        <v>84</v>
+      </c>
+      <c r="K3" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A4" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="G4" t="s">
+        <v>85</v>
+      </c>
+      <c r="K4" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A5" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="H5" t="s">
+        <v>86</v>
+      </c>
+      <c r="K5" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="I6" s="4" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="I7" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="I8" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="H9" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="K9" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="H10" t="s">
+        <v>91</v>
+      </c>
+      <c r="K10" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="H11" t="s">
+        <v>92</v>
+      </c>
+      <c r="K11" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A12" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="G12" t="s">
+        <v>93</v>
+      </c>
+      <c r="K12" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A13" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="H13" t="s">
+        <v>94</v>
+      </c>
+      <c r="K13" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="I14" s="4" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="I15" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="I16" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="H17" s="5" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="H18" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="H19" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A20" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="C20" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="D20" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="G20" t="s">
+        <v>95</v>
+      </c>
+      <c r="K20" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A21" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="C21" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="H21" t="s">
+        <v>96</v>
+      </c>
+      <c r="K21" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="I22" s="4" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="I23" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="I24" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="H25" s="5" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="H26" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="H27" t="s">
+        <v>97</v>
+      </c>
+      <c r="K27" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="F28" t="s">
+        <v>98</v>
+      </c>
+      <c r="K28" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="G29" t="s">
+        <v>99</v>
+      </c>
+      <c r="K29" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="H30" t="s">
+        <v>100</v>
+      </c>
+      <c r="K30" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="H31" t="s">
+        <v>101</v>
+      </c>
+      <c r="K31" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="G32" t="s">
+        <v>102</v>
+      </c>
+      <c r="K32" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="33" spans="6:11" x14ac:dyDescent="0.3">
+      <c r="H33" t="s">
+        <v>100</v>
+      </c>
+      <c r="K33" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="34" spans="6:11" x14ac:dyDescent="0.3">
+      <c r="H34" t="s">
+        <v>101</v>
+      </c>
+      <c r="K34" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="35" spans="6:11" x14ac:dyDescent="0.3">
+      <c r="G35" t="s">
+        <v>103</v>
+      </c>
+      <c r="K35" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="36" spans="6:11" x14ac:dyDescent="0.3">
+      <c r="H36" t="s">
+        <v>100</v>
+      </c>
+      <c r="K36" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="37" spans="6:11" x14ac:dyDescent="0.3">
+      <c r="H37" t="s">
+        <v>101</v>
+      </c>
+      <c r="K37" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="38" spans="6:11" x14ac:dyDescent="0.3">
+      <c r="F38" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="39" spans="6:11" x14ac:dyDescent="0.3">
+      <c r="G39" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="40" spans="6:11" x14ac:dyDescent="0.3">
+      <c r="H40" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="41" spans="6:11" x14ac:dyDescent="0.3">
+      <c r="I41" s="4" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="42" spans="6:11" x14ac:dyDescent="0.3">
+      <c r="I42" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="43" spans="6:11" x14ac:dyDescent="0.3">
+      <c r="I43" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="44" spans="6:11" x14ac:dyDescent="0.3">
+      <c r="H44" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="45" spans="6:11" x14ac:dyDescent="0.3">
+      <c r="I45" s="4" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="46" spans="6:11" x14ac:dyDescent="0.3">
+      <c r="I46" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="47" spans="6:11" x14ac:dyDescent="0.3">
+      <c r="I47" t="s">
+        <v>89</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7E932AE2-D031-40A7-868E-0DEFD4705840}">
+  <dimension ref="A1:H23"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2:D23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="25.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.5546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="3.5546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.44140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7.44140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="D1" t="s">
+        <v>136</v>
+      </c>
+      <c r="F1" t="s">
+        <v>137</v>
+      </c>
+      <c r="H1" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>160</v>
+      </c>
+      <c r="B2" t="str">
+        <f>UPPER(LEFT(A2,1))&amp;MID(A2,2,100)</f>
+        <v>ViewPiantinaAngus</v>
+      </c>
+      <c r="D2" t="str">
+        <f>D$1 &amp; A2 &amp;F$1 &amp; UPPER(LEFT(A2,1))&amp;MID(A2,2,100) &amp;H$1</f>
+        <v>this.data[ObjectID.viewPiantinaAngus] = ViewPiantinaAngus.JSON();</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>139</v>
+      </c>
+      <c r="D3" t="str">
+        <f t="shared" ref="D3:D23" si="0">D$1 &amp; A3 &amp;F$1 &amp; UPPER(LEFT(A3,1))&amp;MID(A3,2,100) &amp;H$1</f>
+        <v>this.data[ObjectID.viewSezioneLavaggio] = ViewSezioneLavaggio.JSON();</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>140</v>
+      </c>
+      <c r="D4" t="str">
+        <f t="shared" si="0"/>
+        <v>this.data[ObjectID.viewPrelavaggio] = ViewPrelavaggio.JSON();</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>141</v>
+      </c>
+      <c r="D5" t="str">
+        <f t="shared" si="0"/>
+        <v>this.data[ObjectID.viewLavaggio] = ViewLavaggio.JSON();</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>142</v>
+      </c>
+      <c r="D6" t="str">
+        <f t="shared" si="0"/>
+        <v>this.data[ObjectID.viewAsciugatura] = ViewAsciugatura.JSON();</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>143</v>
+      </c>
+      <c r="D7" t="str">
+        <f t="shared" si="0"/>
+        <v>this.data[ObjectID.viewPompaAcqua] = ViewPompaAcqua.JSON();</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>144</v>
+      </c>
+      <c r="D8" t="str">
+        <f t="shared" si="0"/>
+        <v>this.data[ObjectID.viewContatoreAcqua] = ViewContatoreAcqua.JSON();</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>145</v>
+      </c>
+      <c r="D9" t="str">
+        <f t="shared" si="0"/>
+        <v>this.data[ObjectID.viewSensoreTemperatura] = ViewSensoreTemperatura.JSON();</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>146</v>
+      </c>
+      <c r="D10" t="str">
+        <f t="shared" si="0"/>
+        <v>this.data[ObjectID.viewSensoreLivelloAcqua] = ViewSensoreLivelloAcqua.JSON();</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>147</v>
+      </c>
+      <c r="D11" t="str">
+        <f t="shared" si="0"/>
+        <v>this.data[ObjectID.viewPompa] = ViewPompa.JSON();</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>148</v>
+      </c>
+      <c r="D12" t="str">
+        <f t="shared" si="0"/>
+        <v>this.data[ObjectID.viewVentilatore] = ViewVentilatore.JSON();</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>149</v>
+      </c>
+      <c r="D13" t="str">
+        <f t="shared" si="0"/>
+        <v>this.data[ObjectID.viewSensoreUmidita] = ViewSensoreUmidita.JSON();</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>150</v>
+      </c>
+      <c r="D14" t="str">
+        <f t="shared" si="0"/>
+        <v>this.data[ObjectID.viewSezionePretrattamento] = ViewSezionePretrattamento.JSON();</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>151</v>
+      </c>
+      <c r="D15" t="str">
+        <f t="shared" si="0"/>
+        <v>this.data[ObjectID.viewVascaPretrattamento] = ViewVascaPretrattamento.JSON();</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>152</v>
+      </c>
+      <c r="D16" t="str">
+        <f t="shared" si="0"/>
+        <v>this.data[ObjectID.viewVascaPrimer] = ViewVascaPrimer.JSON();</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>153</v>
+      </c>
+      <c r="D17" t="str">
+        <f t="shared" si="0"/>
+        <v>this.data[ObjectID.viewVascaFinisher] = ViewVascaFinisher.JSON();</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>154</v>
+      </c>
+      <c r="D18" t="str">
+        <f t="shared" si="0"/>
+        <v>this.data[ObjectID.viewSensoreLivello] = ViewSensoreLivello.JSON();</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>155</v>
+      </c>
+      <c r="D19" t="str">
+        <f t="shared" si="0"/>
+        <v>this.data[ObjectID.viewSensorePH] = ViewSensorePH.JSON();</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>156</v>
+      </c>
+      <c r="D20" t="str">
+        <f t="shared" si="0"/>
+        <v>this.data[ObjectID.viewSezioneStoccaggio] = ViewSezioneStoccaggio.JSON();</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>157</v>
+      </c>
+      <c r="D21" t="str">
+        <f t="shared" si="0"/>
+        <v>this.data[ObjectID.viewImpilatore] = ViewImpilatore.JSON();</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>158</v>
+      </c>
+      <c r="D22" t="str">
+        <f t="shared" si="0"/>
+        <v>this.data[ObjectID.viewMotore1] = ViewMotore1.JSON();</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>159</v>
+      </c>
+      <c r="D23" t="str">
+        <f t="shared" si="0"/>
+        <v>this.data[ObjectID.viewMotore2] = ViewMotore2.JSON();</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>